--- a/vendor_map.xlsx
+++ b/vendor_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rygarcorp.com\shares\Cornerstone\Garretts Reports\Sales Report App\Excell Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFBCFF-4895-420B-9A74-9E2568DFBA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B70BA7-E273-48C8-B2D5-1B068031B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76680" yWindow="-825" windowWidth="29040" windowHeight="15990" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21390" xr2:uid="{5542AD97-7A4C-4C40-ABF5-82E45C8FC76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="296">
   <si>
     <t>BGC10</t>
   </si>
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6055176-08B8-4018-B9DF-7F26AB5DB49D}">
   <dimension ref="A1:K542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
-      <selection activeCell="H538" sqref="H538"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8453,6 +8453,20 @@
         <v>165</v>
       </c>
     </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>291</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C525" s="6">
+        <v>82</v>
+      </c>
+      <c r="D525" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>159</v>
